--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="template.js" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>username</v>
+        <v>template.username</v>
       </c>
       <c r="B2" t="str">
         <v>用户名</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>password</v>
+        <v>template.password</v>
       </c>
       <c r="B3" t="str">
         <v>密码</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>message.reuqired</v>
+        <v>template.message.reuqired</v>
       </c>
       <c r="B4" t="str">
         <v>信息不能为空</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>operate.delete</v>
+        <v>template.operate.delete</v>
       </c>
       <c r="B5" t="str">
         <v>删除</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>operate.add</v>
+        <v>template.operate.add</v>
       </c>
       <c r="B6" t="str">
         <v>新增</v>
